--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Fbn1-Itgb3.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Fbn1-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,6 +88,9 @@
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Itgb3</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.05250035309967</v>
+        <v>12.337869</v>
       </c>
       <c r="H2">
-        <v>5.05250035309967</v>
+        <v>37.013607</v>
       </c>
       <c r="I2">
-        <v>0.01341466119038353</v>
+        <v>0.03142928266772069</v>
       </c>
       <c r="J2">
-        <v>0.01341466119038353</v>
+        <v>0.03142928266772069</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.421792274203448</v>
+        <v>2.092292333333333</v>
       </c>
       <c r="N2">
-        <v>0.421792274203448</v>
+        <v>6.276877000000001</v>
       </c>
       <c r="O2">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="P2">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="Q2">
-        <v>2.131105614347634</v>
+        <v>25.814428718371</v>
       </c>
       <c r="R2">
-        <v>2.131105614347634</v>
+        <v>232.329858465339</v>
       </c>
       <c r="S2">
-        <v>0.0003841419478257586</v>
+        <v>0.003890843117045065</v>
       </c>
       <c r="T2">
-        <v>0.0003841419478257586</v>
+        <v>0.003890843117045066</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.05250035309967</v>
+        <v>12.337869</v>
       </c>
       <c r="H3">
-        <v>5.05250035309967</v>
+        <v>37.013607</v>
       </c>
       <c r="I3">
-        <v>0.01341466119038353</v>
+        <v>0.03142928266772069</v>
       </c>
       <c r="J3">
-        <v>0.01341466119038353</v>
+        <v>0.03142928266772069</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.46734769107956</v>
+        <v>2.468365333333333</v>
       </c>
       <c r="N3">
-        <v>2.46734769107956</v>
+        <v>7.405096</v>
       </c>
       <c r="O3">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="P3">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="Q3">
-        <v>12.46627508039913</v>
+        <v>30.454368126808</v>
       </c>
       <c r="R3">
-        <v>12.46627508039913</v>
+        <v>274.089313141272</v>
       </c>
       <c r="S3">
-        <v>0.002247105520850582</v>
+        <v>0.004590191396558822</v>
       </c>
       <c r="T3">
-        <v>0.002247105520850582</v>
+        <v>0.004590191396558822</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.05250035309967</v>
+        <v>12.337869</v>
       </c>
       <c r="H4">
-        <v>5.05250035309967</v>
+        <v>37.013607</v>
       </c>
       <c r="I4">
-        <v>0.01341466119038353</v>
+        <v>0.03142928266772069</v>
       </c>
       <c r="J4">
-        <v>0.01341466119038353</v>
+        <v>0.03142928266772069</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.204809336494455</v>
+        <v>0.315935</v>
       </c>
       <c r="N4">
-        <v>0.204809336494455</v>
+        <v>0.9478049999999999</v>
       </c>
       <c r="O4">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="P4">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="Q4">
-        <v>1.034799244956343</v>
+        <v>3.897964642514999</v>
       </c>
       <c r="R4">
-        <v>1.034799244956343</v>
+        <v>35.08168178263499</v>
       </c>
       <c r="S4">
-        <v>0.0001865274976941197</v>
+        <v>0.0005875151863818421</v>
       </c>
       <c r="T4">
-        <v>0.0001865274976941197</v>
+        <v>0.0005875151863818421</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.05250035309967</v>
+        <v>12.337869</v>
       </c>
       <c r="H5">
-        <v>5.05250035309967</v>
+        <v>37.013607</v>
       </c>
       <c r="I5">
-        <v>0.01341466119038353</v>
+        <v>0.03142928266772069</v>
       </c>
       <c r="J5">
-        <v>0.01341466119038353</v>
+        <v>0.03142928266772069</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.404714418290936</v>
+        <v>0.4705663333333334</v>
       </c>
       <c r="N5">
-        <v>0.404714418290936</v>
+        <v>1.411699</v>
       </c>
       <c r="O5">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="P5">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="Q5">
-        <v>2.044819741319482</v>
+        <v>5.805785776477</v>
       </c>
       <c r="R5">
-        <v>2.044819741319482</v>
+        <v>52.252071988293</v>
       </c>
       <c r="S5">
-        <v>0.0003685885078124034</v>
+        <v>0.0008750688180586304</v>
       </c>
       <c r="T5">
-        <v>0.0003685885078124034</v>
+        <v>0.0008750688180586305</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.05250035309967</v>
+        <v>12.337869</v>
       </c>
       <c r="H6">
-        <v>5.05250035309967</v>
+        <v>37.013607</v>
       </c>
       <c r="I6">
-        <v>0.01341466119038353</v>
+        <v>0.03142928266772069</v>
       </c>
       <c r="J6">
-        <v>0.01341466119038353</v>
+        <v>0.03142928266772069</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.0138002195307</v>
+        <v>11.291786</v>
       </c>
       <c r="N6">
-        <v>11.0138002195307</v>
+        <v>33.875358</v>
       </c>
       <c r="O6">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="P6">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="Q6">
-        <v>55.64722949814808</v>
+        <v>139.316576444034</v>
       </c>
       <c r="R6">
-        <v>55.64722949814808</v>
+        <v>1253.849187996306</v>
       </c>
       <c r="S6">
-        <v>0.01003067843592974</v>
+        <v>0.02099829318174269</v>
       </c>
       <c r="T6">
-        <v>0.01003067843592974</v>
+        <v>0.02099829318174269</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.05250035309967</v>
+        <v>12.337869</v>
       </c>
       <c r="H7">
-        <v>5.05250035309967</v>
+        <v>37.013607</v>
       </c>
       <c r="I7">
-        <v>0.01341466119038353</v>
+        <v>0.03142928266772069</v>
       </c>
       <c r="J7">
-        <v>0.01341466119038353</v>
+        <v>0.03142928266772069</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.216988241257446</v>
+        <v>0.2620826666666667</v>
       </c>
       <c r="N7">
-        <v>0.216988241257446</v>
+        <v>0.7862480000000001</v>
       </c>
       <c r="O7">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="P7">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="Q7">
-        <v>1.096333165571722</v>
+        <v>3.233541608504</v>
       </c>
       <c r="R7">
-        <v>1.096333165571722</v>
+        <v>29.101874476536</v>
       </c>
       <c r="S7">
-        <v>0.0001976192802709224</v>
+        <v>0.0004873709679336474</v>
       </c>
       <c r="T7">
-        <v>0.0001976192802709224</v>
+        <v>0.0004873709679336474</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>349.132382647277</v>
+        <v>353.819936</v>
       </c>
       <c r="H8">
-        <v>349.132382647277</v>
+        <v>1061.459808</v>
       </c>
       <c r="I8">
-        <v>0.9269653234029508</v>
+        <v>0.9013150311466954</v>
       </c>
       <c r="J8">
-        <v>0.9269653234029508</v>
+        <v>0.9013150311466953</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.421792274203448</v>
+        <v>2.092292333333333</v>
       </c>
       <c r="N8">
-        <v>0.421792274203448</v>
+        <v>6.276877000000001</v>
       </c>
       <c r="O8">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="P8">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="Q8">
-        <v>147.2613416748634</v>
+        <v>740.2947394732907</v>
       </c>
       <c r="R8">
-        <v>147.2613416748634</v>
+        <v>6662.652655259617</v>
       </c>
       <c r="S8">
-        <v>0.02654455896017775</v>
+        <v>0.1115798735307472</v>
       </c>
       <c r="T8">
-        <v>0.02654455896017775</v>
+        <v>0.1115798735307472</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>349.132382647277</v>
+        <v>353.819936</v>
       </c>
       <c r="H9">
-        <v>349.132382647277</v>
+        <v>1061.459808</v>
       </c>
       <c r="I9">
-        <v>0.9269653234029508</v>
+        <v>0.9013150311466954</v>
       </c>
       <c r="J9">
-        <v>0.9269653234029508</v>
+        <v>0.9013150311466953</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.46734769107956</v>
+        <v>2.468365333333333</v>
       </c>
       <c r="N9">
-        <v>2.46734769107956</v>
+        <v>7.405096</v>
       </c>
       <c r="O9">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="P9">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="Q9">
-        <v>861.4309782058643</v>
+        <v>873.3568642646187</v>
       </c>
       <c r="R9">
-        <v>861.4309782058643</v>
+        <v>7860.211778381569</v>
       </c>
       <c r="S9">
-        <v>0.1552770410145754</v>
+        <v>0.131635473367256</v>
       </c>
       <c r="T9">
-        <v>0.1552770410145754</v>
+        <v>0.131635473367256</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>349.132382647277</v>
+        <v>353.819936</v>
       </c>
       <c r="H10">
-        <v>349.132382647277</v>
+        <v>1061.459808</v>
       </c>
       <c r="I10">
-        <v>0.9269653234029508</v>
+        <v>0.9013150311466954</v>
       </c>
       <c r="J10">
-        <v>0.9269653234029508</v>
+        <v>0.9013150311466953</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.204809336494455</v>
+        <v>0.315935</v>
       </c>
       <c r="N10">
-        <v>0.204809336494455</v>
+        <v>0.9478049999999999</v>
       </c>
       <c r="O10">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="P10">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="Q10">
-        <v>71.50557163871697</v>
+        <v>111.78410148016</v>
       </c>
       <c r="R10">
-        <v>71.50557163871697</v>
+        <v>1006.05691332144</v>
       </c>
       <c r="S10">
-        <v>0.01288922021731877</v>
+        <v>0.01684849998363992</v>
       </c>
       <c r="T10">
-        <v>0.01288922021731877</v>
+        <v>0.01684849998363992</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>349.132382647277</v>
+        <v>353.819936</v>
       </c>
       <c r="H11">
-        <v>349.132382647277</v>
+        <v>1061.459808</v>
       </c>
       <c r="I11">
-        <v>0.9269653234029508</v>
+        <v>0.9013150311466954</v>
       </c>
       <c r="J11">
-        <v>0.9269653234029508</v>
+        <v>0.9013150311466953</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.404714418290936</v>
+        <v>0.4705663333333334</v>
       </c>
       <c r="N11">
-        <v>0.404714418290936</v>
+        <v>1.411699</v>
       </c>
       <c r="O11">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="P11">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="Q11">
-        <v>141.2989091496212</v>
+        <v>166.4957499437547</v>
       </c>
       <c r="R11">
-        <v>141.2989091496212</v>
+        <v>1498.461749493792</v>
       </c>
       <c r="S11">
-        <v>0.02546980206938549</v>
+        <v>0.02509483551828118</v>
       </c>
       <c r="T11">
-        <v>0.02546980206938549</v>
+        <v>0.02509483551828118</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>349.132382647277</v>
+        <v>353.819936</v>
       </c>
       <c r="H12">
-        <v>349.132382647277</v>
+        <v>1061.459808</v>
       </c>
       <c r="I12">
-        <v>0.9269653234029508</v>
+        <v>0.9013150311466954</v>
       </c>
       <c r="J12">
-        <v>0.9269653234029508</v>
+        <v>0.9013150311466953</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.0138002195307</v>
+        <v>11.291786</v>
       </c>
       <c r="N12">
-        <v>11.0138002195307</v>
+        <v>33.875358</v>
       </c>
       <c r="O12">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="P12">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="Q12">
-        <v>3845.274312645855</v>
+        <v>3995.258999845697</v>
       </c>
       <c r="R12">
-        <v>3845.274312645855</v>
+        <v>35957.33099861127</v>
       </c>
       <c r="S12">
-        <v>0.6931290286316045</v>
+        <v>0.6021797402512084</v>
       </c>
       <c r="T12">
-        <v>0.6931290286316045</v>
+        <v>0.6021797402512082</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>349.132382647277</v>
+        <v>353.819936</v>
       </c>
       <c r="H13">
-        <v>349.132382647277</v>
+        <v>1061.459808</v>
       </c>
       <c r="I13">
-        <v>0.9269653234029508</v>
+        <v>0.9013150311466954</v>
       </c>
       <c r="J13">
-        <v>0.9269653234029508</v>
+        <v>0.9013150311466953</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.216988241257446</v>
+        <v>0.2620826666666667</v>
       </c>
       <c r="N13">
-        <v>0.216988241257446</v>
+        <v>0.7862480000000001</v>
       </c>
       <c r="O13">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="P13">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="Q13">
-        <v>75.7576216766543</v>
+        <v>92.73007234670935</v>
       </c>
       <c r="R13">
-        <v>75.7576216766543</v>
+        <v>834.5706511203841</v>
       </c>
       <c r="S13">
-        <v>0.01365567250988891</v>
+        <v>0.01397660849556282</v>
       </c>
       <c r="T13">
-        <v>0.01365567250988891</v>
+        <v>0.01397660849556282</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.145274406943609</v>
+        <v>0.2119633333333334</v>
       </c>
       <c r="H14">
-        <v>0.145274406943609</v>
+        <v>0.6358900000000001</v>
       </c>
       <c r="I14">
-        <v>0.0003857113928922018</v>
+        <v>0.0005399518764971195</v>
       </c>
       <c r="J14">
-        <v>0.0003857113928922018</v>
+        <v>0.0005399518764971195</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.421792274203448</v>
+        <v>2.092292333333333</v>
       </c>
       <c r="N14">
-        <v>0.421792274203448</v>
+        <v>6.276877000000001</v>
       </c>
       <c r="O14">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="P14">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="Q14">
-        <v>0.06127562248830201</v>
+        <v>0.4434892572811112</v>
       </c>
       <c r="R14">
-        <v>0.06127562248830201</v>
+        <v>3.991403315530001</v>
       </c>
       <c r="S14">
-        <v>1.104522310786447E-05</v>
+        <v>6.684428863411737E-05</v>
       </c>
       <c r="T14">
-        <v>1.104522310786447E-05</v>
+        <v>6.684428863411738E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.145274406943609</v>
+        <v>0.2119633333333334</v>
       </c>
       <c r="H15">
-        <v>0.145274406943609</v>
+        <v>0.6358900000000001</v>
       </c>
       <c r="I15">
-        <v>0.0003857113928922018</v>
+        <v>0.0005399518764971195</v>
       </c>
       <c r="J15">
-        <v>0.0003857113928922018</v>
+        <v>0.0005399518764971195</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.46734769107956</v>
+        <v>2.468365333333333</v>
       </c>
       <c r="N15">
-        <v>2.46734769107956</v>
+        <v>7.405096</v>
       </c>
       <c r="O15">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="P15">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="Q15">
-        <v>0.3584424725452661</v>
+        <v>0.5232029439377779</v>
       </c>
       <c r="R15">
-        <v>0.3584424725452661</v>
+        <v>4.70882649544</v>
       </c>
       <c r="S15">
-        <v>6.46109646842489E-05</v>
+        <v>7.885902087731654E-05</v>
       </c>
       <c r="T15">
-        <v>6.46109646842489E-05</v>
+        <v>7.885902087731654E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.145274406943609</v>
+        <v>0.2119633333333334</v>
       </c>
       <c r="H16">
-        <v>0.145274406943609</v>
+        <v>0.6358900000000001</v>
       </c>
       <c r="I16">
-        <v>0.0003857113928922018</v>
+        <v>0.0005399518764971195</v>
       </c>
       <c r="J16">
-        <v>0.0003857113928922018</v>
+        <v>0.0005399518764971195</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.204809336494455</v>
+        <v>0.315935</v>
       </c>
       <c r="N16">
-        <v>0.204809336494455</v>
+        <v>0.9478049999999999</v>
       </c>
       <c r="O16">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="P16">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="Q16">
-        <v>0.02975355489574601</v>
+        <v>0.06696663571666667</v>
       </c>
       <c r="R16">
-        <v>0.02975355489574601</v>
+        <v>0.6026997214499999</v>
       </c>
       <c r="S16">
-        <v>5.363220131110814E-06</v>
+        <v>1.009345108863207E-05</v>
       </c>
       <c r="T16">
-        <v>5.363220131110814E-06</v>
+        <v>1.009345108863207E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.145274406943609</v>
+        <v>0.2119633333333334</v>
       </c>
       <c r="H17">
-        <v>0.145274406943609</v>
+        <v>0.6358900000000001</v>
       </c>
       <c r="I17">
-        <v>0.0003857113928922018</v>
+        <v>0.0005399518764971195</v>
       </c>
       <c r="J17">
-        <v>0.0003857113928922018</v>
+        <v>0.0005399518764971195</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.404714418290936</v>
+        <v>0.4705663333333334</v>
       </c>
       <c r="N17">
-        <v>0.404714418290936</v>
+        <v>1.411699</v>
       </c>
       <c r="O17">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="P17">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="Q17">
-        <v>0.05879464709874343</v>
+        <v>0.0997428085677778</v>
       </c>
       <c r="R17">
-        <v>0.05879464709874343</v>
+        <v>0.8976852771100001</v>
       </c>
       <c r="S17">
-        <v>1.05980154649225E-05</v>
+        <v>1.503359320574465E-05</v>
       </c>
       <c r="T17">
-        <v>1.05980154649225E-05</v>
+        <v>1.503359320574465E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.145274406943609</v>
+        <v>0.2119633333333334</v>
       </c>
       <c r="H18">
-        <v>0.145274406943609</v>
+        <v>0.6358900000000001</v>
       </c>
       <c r="I18">
-        <v>0.0003857113928922018</v>
+        <v>0.0005399518764971195</v>
       </c>
       <c r="J18">
-        <v>0.0003857113928922018</v>
+        <v>0.0005399518764971195</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.0138002195307</v>
+        <v>11.291786</v>
       </c>
       <c r="N18">
-        <v>11.0138002195307</v>
+        <v>33.875358</v>
       </c>
       <c r="O18">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="P18">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="Q18">
-        <v>1.600023295087713</v>
+        <v>2.393444599846667</v>
       </c>
       <c r="R18">
-        <v>1.600023295087713</v>
+        <v>21.54100139862</v>
       </c>
       <c r="S18">
-        <v>0.0002884118276464364</v>
+        <v>0.0003607485390801918</v>
       </c>
       <c r="T18">
-        <v>0.0002884118276464364</v>
+        <v>0.0003607485390801918</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.145274406943609</v>
+        <v>0.2119633333333334</v>
       </c>
       <c r="H19">
-        <v>0.145274406943609</v>
+        <v>0.6358900000000001</v>
       </c>
       <c r="I19">
-        <v>0.0003857113928922018</v>
+        <v>0.0005399518764971195</v>
       </c>
       <c r="J19">
-        <v>0.0003857113928922018</v>
+        <v>0.0005399518764971195</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.216988241257446</v>
+        <v>0.2620826666666667</v>
       </c>
       <c r="N19">
-        <v>0.216988241257446</v>
+        <v>0.7862480000000001</v>
       </c>
       <c r="O19">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="P19">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="Q19">
-        <v>0.03152283806241222</v>
+        <v>0.05555191563555557</v>
       </c>
       <c r="R19">
-        <v>0.03152283806241222</v>
+        <v>0.4999672407200001</v>
       </c>
       <c r="S19">
-        <v>5.682141857618741E-06</v>
+        <v>8.372983611117044E-06</v>
       </c>
       <c r="T19">
-        <v>5.682141857618741E-06</v>
+        <v>8.372983611117044E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.378025344978329</v>
+        <v>0.384321</v>
       </c>
       <c r="H20">
-        <v>0.378025344978329</v>
+        <v>1.152963</v>
       </c>
       <c r="I20">
-        <v>0.00100367769814228</v>
+        <v>0.0009790129352273951</v>
       </c>
       <c r="J20">
-        <v>0.00100367769814228</v>
+        <v>0.0009790129352273951</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.421792274203448</v>
+        <v>2.092292333333333</v>
       </c>
       <c r="N20">
-        <v>0.421792274203448</v>
+        <v>6.276877000000001</v>
       </c>
       <c r="O20">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="P20">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="Q20">
-        <v>0.1594481699649524</v>
+        <v>0.804111881839</v>
       </c>
       <c r="R20">
-        <v>0.1594481699649524</v>
+        <v>7.237006936551</v>
       </c>
       <c r="S20">
-        <v>2.874129286470829E-05</v>
+        <v>0.0001211986217057319</v>
       </c>
       <c r="T20">
-        <v>2.874129286470829E-05</v>
+        <v>0.0001211986217057319</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.378025344978329</v>
+        <v>0.384321</v>
       </c>
       <c r="H21">
-        <v>0.378025344978329</v>
+        <v>1.152963</v>
       </c>
       <c r="I21">
-        <v>0.00100367769814228</v>
+        <v>0.0009790129352273951</v>
       </c>
       <c r="J21">
-        <v>0.00100367769814228</v>
+        <v>0.0009790129352273951</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.46734769107956</v>
+        <v>2.468365333333333</v>
       </c>
       <c r="N21">
-        <v>2.46734769107956</v>
+        <v>7.405096</v>
       </c>
       <c r="O21">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="P21">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="Q21">
-        <v>0.9327199621018343</v>
+        <v>0.9486446332719999</v>
       </c>
       <c r="R21">
-        <v>0.9327199621018343</v>
+        <v>8.537801699448</v>
       </c>
       <c r="S21">
-        <v>0.0001681272202586012</v>
+        <v>0.0001429831154567197</v>
       </c>
       <c r="T21">
-        <v>0.0001681272202586012</v>
+        <v>0.0001429831154567197</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.378025344978329</v>
+        <v>0.384321</v>
       </c>
       <c r="H22">
-        <v>0.378025344978329</v>
+        <v>1.152963</v>
       </c>
       <c r="I22">
-        <v>0.00100367769814228</v>
+        <v>0.0009790129352273951</v>
       </c>
       <c r="J22">
-        <v>0.00100367769814228</v>
+        <v>0.0009790129352273951</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.204809336494455</v>
+        <v>0.315935</v>
       </c>
       <c r="N22">
-        <v>0.204809336494455</v>
+        <v>0.9478049999999999</v>
       </c>
       <c r="O22">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="P22">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="Q22">
-        <v>0.07742312008309903</v>
+        <v>0.121420455135</v>
       </c>
       <c r="R22">
-        <v>0.07742312008309903</v>
+        <v>1.092784096215</v>
       </c>
       <c r="S22">
-        <v>1.395588653853442E-05</v>
+        <v>1.830092570649404E-05</v>
       </c>
       <c r="T22">
-        <v>1.395588653853442E-05</v>
+        <v>1.830092570649404E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.378025344978329</v>
+        <v>0.384321</v>
       </c>
       <c r="H23">
-        <v>0.378025344978329</v>
+        <v>1.152963</v>
       </c>
       <c r="I23">
-        <v>0.00100367769814228</v>
+        <v>0.0009790129352273951</v>
       </c>
       <c r="J23">
-        <v>0.00100367769814228</v>
+        <v>0.0009790129352273951</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.404714418290936</v>
+        <v>0.4705663333333334</v>
       </c>
       <c r="N23">
-        <v>0.404714418290936</v>
+        <v>1.411699</v>
       </c>
       <c r="O23">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="P23">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="Q23">
-        <v>0.1529923075921348</v>
+        <v>0.180848523793</v>
       </c>
       <c r="R23">
-        <v>0.1529923075921348</v>
+        <v>1.627636714137</v>
       </c>
       <c r="S23">
-        <v>2.757759289128003E-05</v>
+        <v>2.725813697852611E-05</v>
       </c>
       <c r="T23">
-        <v>2.757759289128003E-05</v>
+        <v>2.725813697852611E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.378025344978329</v>
+        <v>0.384321</v>
       </c>
       <c r="H24">
-        <v>0.378025344978329</v>
+        <v>1.152963</v>
       </c>
       <c r="I24">
-        <v>0.00100367769814228</v>
+        <v>0.0009790129352273951</v>
       </c>
       <c r="J24">
-        <v>0.00100367769814228</v>
+        <v>0.0009790129352273951</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.0138002195307</v>
+        <v>11.291786</v>
       </c>
       <c r="N24">
-        <v>11.0138002195307</v>
+        <v>33.875358</v>
       </c>
       <c r="O24">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="P24">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="Q24">
-        <v>4.163495627510488</v>
+        <v>4.339670487306</v>
       </c>
       <c r="R24">
-        <v>4.163495627510488</v>
+        <v>39.05703438575399</v>
       </c>
       <c r="S24">
-        <v>0.0007504899378745724</v>
+        <v>0.0006540906727004909</v>
       </c>
       <c r="T24">
-        <v>0.0007504899378745724</v>
+        <v>0.0006540906727004909</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.378025344978329</v>
+        <v>0.384321</v>
       </c>
       <c r="H25">
-        <v>0.378025344978329</v>
+        <v>1.152963</v>
       </c>
       <c r="I25">
-        <v>0.00100367769814228</v>
+        <v>0.0009790129352273951</v>
       </c>
       <c r="J25">
-        <v>0.00100367769814228</v>
+        <v>0.0009790129352273951</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.216988241257446</v>
+        <v>0.2620826666666667</v>
       </c>
       <c r="N25">
-        <v>0.216988241257446</v>
+        <v>0.7862480000000001</v>
       </c>
       <c r="O25">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="P25">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="Q25">
-        <v>0.08202705475758691</v>
+        <v>0.100723872536</v>
       </c>
       <c r="R25">
-        <v>0.08202705475758691</v>
+        <v>0.906514852824</v>
       </c>
       <c r="S25">
-        <v>1.478576771458384E-05</v>
+        <v>1.518146267943251E-05</v>
       </c>
       <c r="T25">
-        <v>1.478576771458384E-05</v>
+        <v>1.518146267943251E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>21.9319933500706</v>
+        <v>0.129164</v>
       </c>
       <c r="H26">
-        <v>21.9319933500706</v>
+        <v>0.387492</v>
       </c>
       <c r="I26">
-        <v>0.05823062631563122</v>
+        <v>0.0003290302293283772</v>
       </c>
       <c r="J26">
-        <v>0.05823062631563122</v>
+        <v>0.0003290302293283772</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.421792274203448</v>
+        <v>2.092292333333333</v>
       </c>
       <c r="N26">
-        <v>0.421792274203448</v>
+        <v>6.276877000000001</v>
       </c>
       <c r="O26">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="P26">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="Q26">
-        <v>9.250745352941177</v>
+        <v>0.2702488469426667</v>
       </c>
       <c r="R26">
-        <v>9.250745352941177</v>
+        <v>2.432239622484</v>
       </c>
       <c r="S26">
-        <v>0.00166749095624091</v>
+        <v>4.073287375396909E-05</v>
       </c>
       <c r="T26">
-        <v>0.00166749095624091</v>
+        <v>4.07328737539691E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>21.9319933500706</v>
+        <v>0.129164</v>
       </c>
       <c r="H27">
-        <v>21.9319933500706</v>
+        <v>0.387492</v>
       </c>
       <c r="I27">
-        <v>0.05823062631563122</v>
+        <v>0.0003290302293283772</v>
       </c>
       <c r="J27">
-        <v>0.05823062631563122</v>
+        <v>0.0003290302293283772</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>2.46734769107956</v>
+        <v>2.468365333333333</v>
       </c>
       <c r="N27">
-        <v>2.46734769107956</v>
+        <v>7.405096</v>
       </c>
       <c r="O27">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="P27">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="Q27">
-        <v>54.11385315306895</v>
+        <v>0.3188239399146667</v>
       </c>
       <c r="R27">
-        <v>54.11385315306895</v>
+        <v>2.869415459232</v>
       </c>
       <c r="S27">
-        <v>0.009754280038786508</v>
+        <v>4.805428567487008E-05</v>
       </c>
       <c r="T27">
-        <v>0.009754280038786508</v>
+        <v>4.805428567487008E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>21.9319933500706</v>
+        <v>0.129164</v>
       </c>
       <c r="H28">
-        <v>21.9319933500706</v>
+        <v>0.387492</v>
       </c>
       <c r="I28">
-        <v>0.05823062631563122</v>
+        <v>0.0003290302293283772</v>
       </c>
       <c r="J28">
-        <v>0.05823062631563122</v>
+        <v>0.0003290302293283772</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.204809336494455</v>
+        <v>0.315935</v>
       </c>
       <c r="N28">
-        <v>0.204809336494455</v>
+        <v>0.9478049999999999</v>
       </c>
       <c r="O28">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="P28">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="Q28">
-        <v>4.491877006028759</v>
+        <v>0.04080742833999999</v>
       </c>
       <c r="R28">
-        <v>4.491877006028759</v>
+        <v>0.36726685506</v>
       </c>
       <c r="S28">
-        <v>0.0008096822470329955</v>
+        <v>6.150641697834874E-06</v>
       </c>
       <c r="T28">
-        <v>0.0008096822470329955</v>
+        <v>6.150641697834874E-06</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>21.9319933500706</v>
+        <v>0.129164</v>
       </c>
       <c r="H29">
-        <v>21.9319933500706</v>
+        <v>0.387492</v>
       </c>
       <c r="I29">
-        <v>0.05823062631563122</v>
+        <v>0.0003290302293283772</v>
       </c>
       <c r="J29">
-        <v>0.05823062631563122</v>
+        <v>0.0003290302293283772</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.404714418290936</v>
+        <v>0.4705663333333334</v>
       </c>
       <c r="N29">
-        <v>0.404714418290936</v>
+        <v>1.411699</v>
       </c>
       <c r="O29">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="P29">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="Q29">
-        <v>8.8761939306345</v>
+        <v>0.06078022987866667</v>
       </c>
       <c r="R29">
-        <v>8.8761939306345</v>
+        <v>0.547022068908</v>
       </c>
       <c r="S29">
-        <v>0.001599976276556751</v>
+        <v>9.16101385220778E-06</v>
       </c>
       <c r="T29">
-        <v>0.001599976276556751</v>
+        <v>9.16101385220778E-06</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>21.9319933500706</v>
+        <v>0.129164</v>
       </c>
       <c r="H30">
-        <v>21.9319933500706</v>
+        <v>0.387492</v>
       </c>
       <c r="I30">
-        <v>0.05823062631563122</v>
+        <v>0.0003290302293283772</v>
       </c>
       <c r="J30">
-        <v>0.05823062631563122</v>
+        <v>0.0003290302293283772</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>11.0138002195307</v>
+        <v>11.291786</v>
       </c>
       <c r="N30">
-        <v>11.0138002195307</v>
+        <v>33.875358</v>
       </c>
       <c r="O30">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="P30">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="Q30">
-        <v>241.5545931737534</v>
+        <v>1.458492246904</v>
       </c>
       <c r="R30">
-        <v>241.5545931737534</v>
+        <v>13.126430222136</v>
       </c>
       <c r="S30">
-        <v>0.04354136712104212</v>
+        <v>0.0002198291731357022</v>
       </c>
       <c r="T30">
-        <v>0.04354136712104212</v>
+        <v>0.0002198291731357022</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G31">
+        <v>0.129164</v>
+      </c>
+      <c r="H31">
+        <v>0.387492</v>
+      </c>
+      <c r="I31">
+        <v>0.0003290302293283772</v>
+      </c>
+      <c r="J31">
+        <v>0.0003290302293283772</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.2620826666666667</v>
+      </c>
+      <c r="N31">
+        <v>0.7862480000000001</v>
+      </c>
+      <c r="O31">
+        <v>0.01550690714408826</v>
+      </c>
+      <c r="P31">
+        <v>0.01550690714408826</v>
+      </c>
+      <c r="Q31">
+        <v>0.03385164555733334</v>
+      </c>
+      <c r="R31">
+        <v>0.304664810016</v>
+      </c>
+      <c r="S31">
+        <v>5.102241213793211E-06</v>
+      </c>
+      <c r="T31">
+        <v>5.102241213793211E-06</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>25.676422</v>
+      </c>
+      <c r="H32">
+        <v>77.02926600000001</v>
+      </c>
+      <c r="I32">
+        <v>0.06540769114453092</v>
+      </c>
+      <c r="J32">
+        <v>0.06540769114453092</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>2.092292333333333</v>
+      </c>
+      <c r="N32">
+        <v>6.276877000000001</v>
+      </c>
+      <c r="O32">
+        <v>0.1237967521619938</v>
+      </c>
+      <c r="P32">
+        <v>0.1237967521619938</v>
+      </c>
+      <c r="Q32">
+        <v>53.72258089803134</v>
+      </c>
+      <c r="R32">
+        <v>483.5032280822821</v>
+      </c>
+      <c r="S32">
+        <v>0.008097259730107728</v>
+      </c>
+      <c r="T32">
+        <v>0.00809725973010773</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>25.676422</v>
+      </c>
+      <c r="H33">
+        <v>77.02926600000001</v>
+      </c>
+      <c r="I33">
+        <v>0.06540769114453092</v>
+      </c>
+      <c r="J33">
+        <v>0.06540769114453092</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>2.468365333333333</v>
+      </c>
+      <c r="N33">
+        <v>7.405096</v>
+      </c>
+      <c r="O33">
+        <v>0.1460482393151517</v>
+      </c>
+      <c r="P33">
+        <v>0.1460482393151517</v>
+      </c>
+      <c r="Q33">
+        <v>63.37878994883734</v>
+      </c>
+      <c r="R33">
+        <v>570.4091095395361</v>
+      </c>
+      <c r="S33">
+        <v>0.009552678129327981</v>
+      </c>
+      <c r="T33">
+        <v>0.009552678129327981</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>25.676422</v>
+      </c>
+      <c r="H34">
+        <v>77.02926600000001</v>
+      </c>
+      <c r="I34">
+        <v>0.06540769114453092</v>
+      </c>
+      <c r="J34">
+        <v>0.06540769114453092</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.315935</v>
+      </c>
+      <c r="N34">
+        <v>0.9478049999999999</v>
+      </c>
+      <c r="O34">
+        <v>0.01869324198688273</v>
+      </c>
+      <c r="P34">
+        <v>0.01869324198688273</v>
+      </c>
+      <c r="Q34">
+        <v>8.11208038457</v>
+      </c>
+      <c r="R34">
+        <v>73.00872346113</v>
+      </c>
+      <c r="S34">
+        <v>0.001222681798368003</v>
+      </c>
+      <c r="T34">
+        <v>0.001222681798368003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>25.676422</v>
+      </c>
+      <c r="H35">
+        <v>77.02926600000001</v>
+      </c>
+      <c r="I35">
+        <v>0.06540769114453092</v>
+      </c>
+      <c r="J35">
+        <v>0.06540769114453092</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.4705663333333334</v>
+      </c>
+      <c r="N35">
+        <v>1.411699</v>
+      </c>
+      <c r="O35">
+        <v>0.02784246867197405</v>
+      </c>
+      <c r="P35">
+        <v>0.02784246867197405</v>
+      </c>
+      <c r="Q35">
+        <v>12.08245975365934</v>
+      </c>
+      <c r="R35">
+        <v>108.742137782934</v>
+      </c>
+      <c r="S35">
+        <v>0.001821111591597757</v>
+      </c>
+      <c r="T35">
+        <v>0.001821111591597757</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>21.9319933500706</v>
-      </c>
-      <c r="H31">
-        <v>21.9319933500706</v>
-      </c>
-      <c r="I31">
-        <v>0.05823062631563122</v>
-      </c>
-      <c r="J31">
-        <v>0.05823062631563122</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>0.216988241257446</v>
-      </c>
-      <c r="N31">
-        <v>0.216988241257446</v>
-      </c>
-      <c r="O31">
-        <v>0.01473158937570397</v>
-      </c>
-      <c r="P31">
-        <v>0.01473158937570397</v>
-      </c>
-      <c r="Q31">
-        <v>4.758984664301821</v>
-      </c>
-      <c r="R31">
-        <v>4.758984664301821</v>
-      </c>
-      <c r="S31">
-        <v>0.0008578296759719412</v>
-      </c>
-      <c r="T31">
-        <v>0.0008578296759719412</v>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>25.676422</v>
+      </c>
+      <c r="H36">
+        <v>77.02926600000001</v>
+      </c>
+      <c r="I36">
+        <v>0.06540769114453092</v>
+      </c>
+      <c r="J36">
+        <v>0.06540769114453092</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>11.291786</v>
+      </c>
+      <c r="N36">
+        <v>33.875358</v>
+      </c>
+      <c r="O36">
+        <v>0.6681123907199095</v>
+      </c>
+      <c r="P36">
+        <v>0.6681123907199095</v>
+      </c>
+      <c r="Q36">
+        <v>289.932662469692</v>
+      </c>
+      <c r="R36">
+        <v>2609.393962227228</v>
+      </c>
+      <c r="S36">
+        <v>0.043699688902042</v>
+      </c>
+      <c r="T36">
+        <v>0.043699688902042</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>25.676422</v>
+      </c>
+      <c r="H37">
+        <v>77.02926600000001</v>
+      </c>
+      <c r="I37">
+        <v>0.06540769114453092</v>
+      </c>
+      <c r="J37">
+        <v>0.06540769114453092</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.2620826666666667</v>
+      </c>
+      <c r="N37">
+        <v>0.7862480000000001</v>
+      </c>
+      <c r="O37">
+        <v>0.01550690714408826</v>
+      </c>
+      <c r="P37">
+        <v>0.01550690714408826</v>
+      </c>
+      <c r="Q37">
+        <v>6.729345148218668</v>
+      </c>
+      <c r="R37">
+        <v>60.56410633396801</v>
+      </c>
+      <c r="S37">
+        <v>0.001014270993087445</v>
+      </c>
+      <c r="T37">
+        <v>0.001014270993087445</v>
       </c>
     </row>
   </sheetData>
